--- a/Code/Results/Cases/Case_9_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020869387104262</v>
+        <v>1.019527873732545</v>
       </c>
       <c r="D2">
-        <v>1.041277779428661</v>
+        <v>1.039093806200809</v>
       </c>
       <c r="E2">
-        <v>1.034207013983035</v>
+        <v>1.032972756382529</v>
       </c>
       <c r="F2">
-        <v>1.044371298756229</v>
+        <v>1.042937610146185</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057406588236977</v>
+        <v>1.056243290968643</v>
       </c>
       <c r="J2">
-        <v>1.042443324899288</v>
+        <v>1.041139794503201</v>
       </c>
       <c r="K2">
-        <v>1.052190510822449</v>
+        <v>1.050034099287021</v>
       </c>
       <c r="L2">
-        <v>1.045209505187121</v>
+        <v>1.043991073347281</v>
       </c>
       <c r="M2">
-        <v>1.055245235916475</v>
+        <v>1.053829490779803</v>
       </c>
       <c r="N2">
-        <v>1.017935028182699</v>
+        <v>1.018034157646442</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052295194318979</v>
+        <v>1.051174744079155</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047973431186827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046457366266603</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02527819804535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024148770865783</v>
+        <v>1.022693870341205</v>
       </c>
       <c r="D3">
-        <v>1.04355570625455</v>
+        <v>1.041215690325477</v>
       </c>
       <c r="E3">
-        <v>1.036734561670336</v>
+        <v>1.035396272778242</v>
       </c>
       <c r="F3">
-        <v>1.04683425464717</v>
+        <v>1.045291507392879</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058267892323105</v>
+        <v>1.057015246089322</v>
       </c>
       <c r="J3">
-        <v>1.044002085079419</v>
+        <v>1.042584431164108</v>
       </c>
       <c r="K3">
-        <v>1.053660039648839</v>
+        <v>1.051347030135269</v>
       </c>
       <c r="L3">
-        <v>1.046918039638468</v>
+        <v>1.04559543010303</v>
       </c>
       <c r="M3">
-        <v>1.056901000501566</v>
+        <v>1.055375904112956</v>
       </c>
       <c r="N3">
-        <v>1.018461022317658</v>
+        <v>1.018420450557323</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05360559884133</v>
+        <v>1.05239860777176</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049009857613059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04738279349466</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025531424842987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026237548585905</v>
+        <v>1.024710998823242</v>
       </c>
       <c r="D4">
-        <v>1.045010042776905</v>
+        <v>1.04257100726541</v>
       </c>
       <c r="E4">
-        <v>1.038350106628397</v>
+        <v>1.036946007903812</v>
       </c>
       <c r="F4">
-        <v>1.048409170730684</v>
+        <v>1.046797338725502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058807665094383</v>
+        <v>1.05749823364565</v>
       </c>
       <c r="J4">
-        <v>1.044993101653022</v>
+        <v>1.043503042262538</v>
       </c>
       <c r="K4">
-        <v>1.054593969113665</v>
+        <v>1.052181415688975</v>
       </c>
       <c r="L4">
-        <v>1.048006705009759</v>
+        <v>1.046618073982362</v>
       </c>
       <c r="M4">
-        <v>1.057956442542049</v>
+        <v>1.056361955361222</v>
       </c>
       <c r="N4">
-        <v>1.01879550058177</v>
+        <v>1.018666179679958</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054440895157599</v>
+        <v>1.053178988209508</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04967109297593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047973728733888</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025690124442949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027110728995658</v>
+        <v>1.025554323637091</v>
       </c>
       <c r="D5">
-        <v>1.045620675302055</v>
+        <v>1.043140366701925</v>
       </c>
       <c r="E5">
-        <v>1.039027271102771</v>
+        <v>1.037595736279388</v>
       </c>
       <c r="F5">
-        <v>1.049069571704835</v>
+        <v>1.0474289432041</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05903259111842</v>
+        <v>1.057699454613136</v>
       </c>
       <c r="J5">
-        <v>1.045408332118359</v>
+        <v>1.043888041298827</v>
       </c>
       <c r="K5">
-        <v>1.054986398698214</v>
+        <v>1.052532315808727</v>
       </c>
       <c r="L5">
-        <v>1.04846304830327</v>
+        <v>1.047046867424493</v>
       </c>
       <c r="M5">
-        <v>1.058399079808503</v>
+        <v>1.056775642449746</v>
       </c>
       <c r="N5">
-        <v>1.018936004695211</v>
+        <v>1.018769448566253</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054791206188074</v>
+        <v>1.053506388103494</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049955642095618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048229626246065</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025756817674395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027260304722855</v>
+        <v>1.025698750886846</v>
       </c>
       <c r="D6">
-        <v>1.045727596491216</v>
+        <v>1.043240264636997</v>
       </c>
       <c r="E6">
-        <v>1.039143929740657</v>
+        <v>1.037707663969776</v>
       </c>
       <c r="F6">
-        <v>1.049183484567241</v>
+        <v>1.047537922896006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059072736976281</v>
+        <v>1.057735546801229</v>
       </c>
       <c r="J6">
-        <v>1.04548114626702</v>
+        <v>1.043955643811044</v>
       </c>
       <c r="K6">
-        <v>1.055056669390779</v>
+        <v>1.052595519094362</v>
       </c>
       <c r="L6">
-        <v>1.048542636463359</v>
+        <v>1.047121705495221</v>
       </c>
       <c r="M6">
-        <v>1.058476432585608</v>
+        <v>1.056848035884829</v>
       </c>
       <c r="N6">
-        <v>1.018961062926642</v>
+        <v>1.018787897427251</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054852424539449</v>
+        <v>1.053563681641516</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05001395681851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048283813630309</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025769398551394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026258416714529</v>
+        <v>1.024737503625584</v>
       </c>
       <c r="D7">
-        <v>1.045030704944805</v>
+        <v>1.042595549713284</v>
       </c>
       <c r="E7">
-        <v>1.038367853640638</v>
+        <v>1.036968471483213</v>
       </c>
       <c r="F7">
-        <v>1.048426818738823</v>
+        <v>1.04681879662394</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05881771195257</v>
+        <v>1.057511153595506</v>
       </c>
       <c r="J7">
-        <v>1.045007617880028</v>
+        <v>1.04352304495923</v>
       </c>
       <c r="K7">
-        <v>1.054611578120429</v>
+        <v>1.052202852656931</v>
       </c>
       <c r="L7">
-        <v>1.048021403215163</v>
+        <v>1.046637430933207</v>
       </c>
       <c r="M7">
-        <v>1.057971083692264</v>
+        <v>1.05638035886941</v>
       </c>
       <c r="N7">
-        <v>1.018801550061011</v>
+        <v>1.018698184860981</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054452482427702</v>
+        <v>1.053193553101778</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049703390435374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048010733614122</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025696445841623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021996084675459</v>
+        <v>1.020635136891249</v>
       </c>
       <c r="D8">
-        <v>1.042067132585341</v>
+        <v>1.039844157806559</v>
       </c>
       <c r="E8">
-        <v>1.035076223618517</v>
+        <v>1.033822777758028</v>
       </c>
       <c r="F8">
-        <v>1.0452185196057</v>
+        <v>1.043761081249539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057710002216246</v>
+        <v>1.056526455697536</v>
       </c>
       <c r="J8">
-        <v>1.04298491436197</v>
+        <v>1.041661233248357</v>
       </c>
       <c r="K8">
-        <v>1.05270590365746</v>
+        <v>1.05051016398514</v>
       </c>
       <c r="L8">
-        <v>1.045801136216921</v>
+        <v>1.044563288687232</v>
       </c>
       <c r="M8">
-        <v>1.055818927621286</v>
+        <v>1.05437919544608</v>
       </c>
       <c r="N8">
-        <v>1.018119250937956</v>
+        <v>1.018253074156658</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052749225428357</v>
+        <v>1.051609792019927</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048360462080578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046818859805158</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025374392465002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014206911705567</v>
+        <v>1.013121822281766</v>
       </c>
       <c r="D9">
-        <v>1.036670186195835</v>
+        <v>1.034822048229991</v>
       </c>
       <c r="E9">
-        <v>1.029104128220237</v>
+        <v>1.028103068729606</v>
       </c>
       <c r="F9">
-        <v>1.039402419598429</v>
+        <v>1.038208347839908</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055610122873939</v>
+        <v>1.054641003429357</v>
       </c>
       <c r="J9">
-        <v>1.039267772558145</v>
+        <v>1.038219574904695</v>
       </c>
       <c r="K9">
-        <v>1.04919506837258</v>
+        <v>1.047374341465168</v>
       </c>
       <c r="L9">
-        <v>1.041742021944437</v>
+        <v>1.040756073629456</v>
       </c>
       <c r="M9">
-        <v>1.0518870048201</v>
+        <v>1.050710510955229</v>
       </c>
       <c r="N9">
-        <v>1.016864039047185</v>
+        <v>1.017341831223802</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049637417433706</v>
+        <v>1.048706312448622</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045874995122124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044598259784911</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024755616581013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008873510242041</v>
+        <v>1.00800624160884</v>
       </c>
       <c r="D10">
-        <v>1.033014088726818</v>
+        <v>1.031442649878857</v>
       </c>
       <c r="E10">
-        <v>1.025070930061367</v>
+        <v>1.024266470049519</v>
       </c>
       <c r="F10">
-        <v>1.035509878517903</v>
+        <v>1.034515796687306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.054146972068861</v>
+        <v>1.053338407728879</v>
       </c>
       <c r="J10">
-        <v>1.036739437041319</v>
+        <v>1.035905769443525</v>
       </c>
       <c r="K10">
-        <v>1.046811794730238</v>
+        <v>1.045266492667969</v>
       </c>
       <c r="L10">
-        <v>1.039001809546554</v>
+        <v>1.038210985643204</v>
       </c>
       <c r="M10">
-        <v>1.049266283357872</v>
+        <v>1.048288621191813</v>
       </c>
       <c r="N10">
-        <v>1.016016020254792</v>
+        <v>1.01684373883541</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047614189496338</v>
+        <v>1.046840489803644</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044206522942743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043126202713934</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024336750637078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006908222942479</v>
+        <v>1.006140598742699</v>
       </c>
       <c r="D11">
-        <v>1.031810213560247</v>
+        <v>1.030348470139847</v>
       </c>
       <c r="E11">
-        <v>1.023778701320188</v>
+        <v>1.023059478651172</v>
       </c>
       <c r="F11">
-        <v>1.034516893321565</v>
+        <v>1.033607107075899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053739648109161</v>
+        <v>1.052997778355518</v>
       </c>
       <c r="J11">
-        <v>1.035996409180874</v>
+        <v>1.035260134212552</v>
       </c>
       <c r="K11">
-        <v>1.046156175134243</v>
+        <v>1.044719888493654</v>
       </c>
       <c r="L11">
-        <v>1.0382656990802</v>
+        <v>1.037559246405185</v>
       </c>
       <c r="M11">
-        <v>1.048815962775154</v>
+        <v>1.047921902753689</v>
       </c>
       <c r="N11">
-        <v>1.01580936383208</v>
+        <v>1.016928521809038</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047689435084869</v>
+        <v>1.046982244801542</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043775441935803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042775416302407</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024272151147438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00630824463788</v>
+        <v>1.005566033110324</v>
       </c>
       <c r="D12">
-        <v>1.031497532536664</v>
+        <v>1.030062608152486</v>
       </c>
       <c r="E12">
-        <v>1.023464761276911</v>
+        <v>1.022765394831737</v>
       </c>
       <c r="F12">
-        <v>1.034400870143308</v>
+        <v>1.033511924741586</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053670468133004</v>
+        <v>1.052945239111489</v>
       </c>
       <c r="J12">
-        <v>1.035848007069358</v>
+        <v>1.035136682295228</v>
       </c>
       <c r="K12">
-        <v>1.046045184958491</v>
+        <v>1.044635663156004</v>
       </c>
       <c r="L12">
-        <v>1.038155810158007</v>
+        <v>1.037469066990988</v>
       </c>
       <c r="M12">
-        <v>1.048897403870178</v>
+        <v>1.048024070477302</v>
       </c>
       <c r="N12">
-        <v>1.015792278140567</v>
+        <v>1.017018554903947</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048077125124566</v>
+        <v>1.047386558847063</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043696970000849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042715868636943</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024285789868654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006731962550315</v>
+        <v>1.005950506162195</v>
       </c>
       <c r="D13">
-        <v>1.031866996532156</v>
+        <v>1.030389972578645</v>
       </c>
       <c r="E13">
-        <v>1.023895660790342</v>
+        <v>1.023159673659176</v>
       </c>
       <c r="F13">
-        <v>1.03497214919234</v>
+        <v>1.034050280984312</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05387133992575</v>
+        <v>1.053120524973376</v>
       </c>
       <c r="J13">
-        <v>1.036162531558954</v>
+        <v>1.035413439325573</v>
       </c>
       <c r="K13">
-        <v>1.046366050030573</v>
+        <v>1.04491506402517</v>
       </c>
       <c r="L13">
-        <v>1.038536396248877</v>
+        <v>1.037813635170462</v>
       </c>
       <c r="M13">
-        <v>1.049416776886201</v>
+        <v>1.048511022600043</v>
       </c>
       <c r="N13">
-        <v>1.015926675443044</v>
+        <v>1.017088365545719</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048762109071057</v>
+        <v>1.048046083973143</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043921363773347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042910700209398</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02436604348204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007493423821035</v>
+        <v>1.006655959121142</v>
       </c>
       <c r="D14">
-        <v>1.032436359178322</v>
+        <v>1.030899211407287</v>
       </c>
       <c r="E14">
-        <v>1.024535254022169</v>
+        <v>1.023748897707641</v>
       </c>
       <c r="F14">
-        <v>1.035684312500679</v>
+        <v>1.034715663454913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05413480312246</v>
+        <v>1.053347330645013</v>
       </c>
       <c r="J14">
-        <v>1.036592970075361</v>
+        <v>1.035789702519405</v>
       </c>
       <c r="K14">
-        <v>1.046787646840142</v>
+        <v>1.045277264295161</v>
       </c>
       <c r="L14">
-        <v>1.039025226490181</v>
+        <v>1.038252824750572</v>
       </c>
       <c r="M14">
-        <v>1.049979383838083</v>
+        <v>1.049027452620295</v>
       </c>
       <c r="N14">
-        <v>1.016089630912159</v>
+        <v>1.017129664661014</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049378878375259</v>
+        <v>1.048626449461922</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044220847749113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043168323983679</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024453057190827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007906604403495</v>
+        <v>1.00704168691384</v>
       </c>
       <c r="D15">
-        <v>1.032731045938312</v>
+        <v>1.031164263469273</v>
       </c>
       <c r="E15">
-        <v>1.024860656666369</v>
+        <v>1.02404999845748</v>
       </c>
       <c r="F15">
-        <v>1.036019592865</v>
+        <v>1.035027982440094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054262332819113</v>
+        <v>1.053456787540082</v>
       </c>
       <c r="J15">
-        <v>1.036804996675855</v>
+        <v>1.035975094542078</v>
       </c>
       <c r="K15">
-        <v>1.046992367607125</v>
+        <v>1.04545266180031</v>
       </c>
       <c r="L15">
-        <v>1.039259076401291</v>
+        <v>1.038462694637335</v>
       </c>
       <c r="M15">
-        <v>1.050224426988476</v>
+        <v>1.049249800655815</v>
       </c>
       <c r="N15">
-        <v>1.016164981293929</v>
+        <v>1.017140234569644</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049609843748652</v>
+        <v>1.048839496181992</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044371389856029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043298703671265</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024491400945726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010083890811741</v>
+        <v>1.009092618454658</v>
       </c>
       <c r="D16">
-        <v>1.034214628337716</v>
+        <v>1.0325079017092</v>
       </c>
       <c r="E16">
-        <v>1.026489211890792</v>
+        <v>1.025567954092104</v>
       </c>
       <c r="F16">
-        <v>1.037582142469505</v>
+        <v>1.036483474627783</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054861679031298</v>
+        <v>1.053971303962201</v>
       </c>
       <c r="J16">
-        <v>1.037827535382031</v>
+        <v>1.036874422881527</v>
       </c>
       <c r="K16">
-        <v>1.047957488188326</v>
+        <v>1.046278986002038</v>
       </c>
       <c r="L16">
-        <v>1.040360794297118</v>
+        <v>1.039455053631037</v>
       </c>
       <c r="M16">
-        <v>1.051269663242069</v>
+        <v>1.050188999223402</v>
       </c>
       <c r="N16">
-        <v>1.016503023081658</v>
+        <v>1.017170461186262</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050397552928781</v>
+        <v>1.049543368811315</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045056878708631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043886360751259</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024652391898251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011357086512616</v>
+        <v>1.010304948828997</v>
       </c>
       <c r="D17">
-        <v>1.035055588283621</v>
+        <v>1.03327794812864</v>
       </c>
       <c r="E17">
-        <v>1.027404855672888</v>
+        <v>1.026430499301059</v>
       </c>
       <c r="F17">
-        <v>1.038404943175083</v>
+        <v>1.037253195667677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0551808676603</v>
+        <v>1.054248092431846</v>
       </c>
       <c r="J17">
-        <v>1.038385717531102</v>
+        <v>1.037372802731458</v>
       </c>
       <c r="K17">
-        <v>1.048475670336907</v>
+        <v>1.04672661224346</v>
       </c>
       <c r="L17">
-        <v>1.040948855033676</v>
+        <v>1.039990450603208</v>
       </c>
       <c r="M17">
-        <v>1.051771512817878</v>
+        <v>1.050638116729041</v>
       </c>
       <c r="N17">
-        <v>1.016676659561315</v>
+        <v>1.017200170250792</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050666149834812</v>
+        <v>1.049770196808724</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04542580204683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044205647674763</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024730574880637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011959565691188</v>
+        <v>1.010889930791659</v>
       </c>
       <c r="D18">
-        <v>1.035401051552532</v>
+        <v>1.033600544347912</v>
       </c>
       <c r="E18">
-        <v>1.027769694254701</v>
+        <v>1.026780850970597</v>
       </c>
       <c r="F18">
-        <v>1.038630402044379</v>
+        <v>1.037462283856725</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055277748117968</v>
+        <v>1.054331655949403</v>
       </c>
       <c r="J18">
-        <v>1.038578246368131</v>
+        <v>1.03754774985265</v>
       </c>
       <c r="K18">
-        <v>1.04863546890459</v>
+        <v>1.046863442656451</v>
       </c>
       <c r="L18">
-        <v>1.041125705252802</v>
+        <v>1.040152787368854</v>
       </c>
       <c r="M18">
-        <v>1.051814052981463</v>
+        <v>1.050664251304877</v>
       </c>
       <c r="N18">
-        <v>1.016716999017582</v>
+        <v>1.017189456178794</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050464091450379</v>
+        <v>1.049554983163797</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045527287483479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044289757805548</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024736461196237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011962689338061</v>
+        <v>1.010909666633845</v>
       </c>
       <c r="D19">
-        <v>1.035311238739314</v>
+        <v>1.033527754112689</v>
       </c>
       <c r="E19">
-        <v>1.027641531711169</v>
+        <v>1.026668893585873</v>
       </c>
       <c r="F19">
-        <v>1.038320525739037</v>
+        <v>1.037165813671265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055182559691117</v>
+        <v>1.054246898830714</v>
       </c>
       <c r="J19">
-        <v>1.038449223528259</v>
+        <v>1.037434505528072</v>
       </c>
       <c r="K19">
-        <v>1.048485644317035</v>
+        <v>1.046730227051094</v>
       </c>
       <c r="L19">
-        <v>1.040937524731659</v>
+        <v>1.0399804722492</v>
       </c>
       <c r="M19">
-        <v>1.0514478524964</v>
+        <v>1.050311164027449</v>
       </c>
       <c r="N19">
-        <v>1.016643017492213</v>
+        <v>1.017127061076491</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049852158106169</v>
+        <v>1.048953129596915</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045427676674191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044202515515185</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024681149054531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010277705514046</v>
+        <v>1.009334396700372</v>
       </c>
       <c r="D20">
-        <v>1.033990578680723</v>
+        <v>1.032333044243827</v>
       </c>
       <c r="E20">
-        <v>1.026135915655264</v>
+        <v>1.025263746126025</v>
       </c>
       <c r="F20">
-        <v>1.036539711813889</v>
+        <v>1.035480037568352</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054547068242079</v>
+        <v>1.053686676236945</v>
       </c>
       <c r="J20">
-        <v>1.037418108095371</v>
+        <v>1.036510175305793</v>
       </c>
       <c r="K20">
-        <v>1.04746096427422</v>
+        <v>1.045830223044667</v>
       </c>
       <c r="L20">
-        <v>1.039734254147874</v>
+        <v>1.038876447893523</v>
       </c>
       <c r="M20">
-        <v>1.049969106419502</v>
+        <v>1.048926440678566</v>
       </c>
       <c r="N20">
-        <v>1.016247152292449</v>
+        <v>1.016908743895498</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048159959612068</v>
+        <v>1.047334807799825</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044707078466638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04357045653433</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024451994772208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006207081004318</v>
+        <v>1.005522272297767</v>
       </c>
       <c r="D21">
-        <v>1.031178565459812</v>
+        <v>1.029800851819801</v>
       </c>
       <c r="E21">
-        <v>1.023032799520069</v>
+        <v>1.022389757171379</v>
       </c>
       <c r="F21">
-        <v>1.03349643126866</v>
+        <v>1.032654299910214</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.053386329190974</v>
+        <v>1.052696706787807</v>
       </c>
       <c r="J21">
-        <v>1.035447559675959</v>
+        <v>1.034790910348285</v>
       </c>
       <c r="K21">
-        <v>1.045592384311931</v>
+        <v>1.044238809182243</v>
       </c>
       <c r="L21">
-        <v>1.037590563843032</v>
+        <v>1.036959011680982</v>
       </c>
       <c r="M21">
-        <v>1.047869827463568</v>
+        <v>1.047042355365849</v>
       </c>
       <c r="N21">
-        <v>1.015578199281192</v>
+        <v>1.016863108435825</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046458123732755</v>
+        <v>1.045803240111507</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043389139782486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042448808428655</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024131810211175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003617780173851</v>
+        <v>1.003095316070935</v>
       </c>
       <c r="D22">
-        <v>1.029397530426347</v>
+        <v>1.028195516064359</v>
       </c>
       <c r="E22">
-        <v>1.021076145519485</v>
+        <v>1.020577077726516</v>
       </c>
       <c r="F22">
-        <v>1.031594085305451</v>
+        <v>1.030888662826561</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052643699655446</v>
+        <v>1.052060953695024</v>
       </c>
       <c r="J22">
-        <v>1.034200002276765</v>
+        <v>1.033700251088539</v>
       </c>
       <c r="K22">
-        <v>1.044408277304811</v>
+        <v>1.043228370230409</v>
       </c>
       <c r="L22">
-        <v>1.036241331620507</v>
+        <v>1.035751630730112</v>
       </c>
       <c r="M22">
-        <v>1.046564606695923</v>
+        <v>1.045872078282259</v>
       </c>
       <c r="N22">
-        <v>1.015155822648628</v>
+        <v>1.016828183525094</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045425136729282</v>
+        <v>1.044877050429399</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042538589358154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041719744056592</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023927483622198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004986277810529</v>
+        <v>1.004367927869405</v>
       </c>
       <c r="D23">
-        <v>1.030333178958638</v>
+        <v>1.029030753492229</v>
       </c>
       <c r="E23">
-        <v>1.022107935731864</v>
+        <v>1.021524169561135</v>
       </c>
       <c r="F23">
-        <v>1.032597053372243</v>
+        <v>1.031812282929003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053033214131146</v>
+        <v>1.052388694581904</v>
       </c>
       <c r="J23">
-        <v>1.034855438281255</v>
+        <v>1.034263194697932</v>
       </c>
       <c r="K23">
-        <v>1.04502729263336</v>
+        <v>1.043748218184344</v>
       </c>
       <c r="L23">
-        <v>1.036950819099334</v>
+        <v>1.036377730046671</v>
       </c>
       <c r="M23">
-        <v>1.047250760282846</v>
+        <v>1.046479970748296</v>
       </c>
       <c r="N23">
-        <v>1.015376495750228</v>
+        <v>1.016802252900915</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045968177409767</v>
+        <v>1.045358153501966</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042966724029513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042076821159412</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024030376225751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010293733594647</v>
+        <v>1.009351968418505</v>
       </c>
       <c r="D24">
-        <v>1.03398023851954</v>
+        <v>1.032323866526986</v>
       </c>
       <c r="E24">
-        <v>1.026127409746021</v>
+        <v>1.025256855820273</v>
       </c>
       <c r="F24">
-        <v>1.036506063914779</v>
+        <v>1.035447525037059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054531965758365</v>
+        <v>1.053672391654122</v>
       </c>
       <c r="J24">
-        <v>1.037401212724203</v>
+        <v>1.036494714560531</v>
       </c>
       <c r="K24">
-        <v>1.047435791492408</v>
+        <v>1.045806160372379</v>
       </c>
       <c r="L24">
-        <v>1.039710725227079</v>
+        <v>1.038854489898019</v>
       </c>
       <c r="M24">
-        <v>1.049921050326272</v>
+        <v>1.048879481439274</v>
       </c>
       <c r="N24">
-        <v>1.016235813453836</v>
+        <v>1.016896751079537</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048081514037932</v>
+        <v>1.047257190192107</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044662196386789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043523683591677</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024441006733423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016267775533289</v>
+        <v>1.015100927121366</v>
       </c>
       <c r="D25">
-        <v>1.038103825731194</v>
+        <v>1.036150438635639</v>
       </c>
       <c r="E25">
-        <v>1.030681314970914</v>
+        <v>1.029606054474711</v>
       </c>
       <c r="F25">
-        <v>1.040938125355387</v>
+        <v>1.039668357446596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056180472229666</v>
+        <v>1.055150299545898</v>
       </c>
       <c r="J25">
-        <v>1.040259798628868</v>
+        <v>1.039130557252435</v>
       </c>
       <c r="K25">
-        <v>1.050138084081372</v>
+        <v>1.048212337235268</v>
       </c>
       <c r="L25">
-        <v>1.042821306925567</v>
+        <v>1.041761523649446</v>
       </c>
       <c r="M25">
-        <v>1.052932511583913</v>
+        <v>1.051680572450978</v>
       </c>
       <c r="N25">
-        <v>1.017200918029691</v>
+        <v>1.017554058239521</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050464855161891</v>
+        <v>1.049474042073617</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046569984775439</v>
+        <v>1.045221803646245</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024924671250821</v>
       </c>
     </row>
   </sheetData>
